--- a/public/sample_uploads/fund_ratios/portfolio_investments.xlsx
+++ b/public/sample_uploads/fund_ratios/portfolio_investments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b9b322f8db0eee2/Desktop/Ausang/AltConnects/Demo Inc Formats/Demo fund info/Ratios fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\fund_ratios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7A4D4265-3111-49BA-9F2E-585E4D5F33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAA02556-1703-4CC8-A323-4013FB0D4BD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE67CB5A-F884-423D-A343-2A307F4B04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Fund</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>Investment in Series A round</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Equity</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,9 +401,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +441,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,30 +700,30 @@
   <dimension ref="A1:AMA8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.90625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.26953125" style="1" customWidth="1"/>
-    <col min="15" max="1014" width="8.54296875" style="1"/>
-    <col min="1015" max="1015" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1016" max="1024" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="3.9296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.59765625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.265625" style="1" customWidth="1"/>
+    <col min="15" max="1014" width="8.53125" style="1"/>
+    <col min="1015" max="1015" width="9.06640625" style="1" customWidth="1"/>
+    <col min="1016" max="1024" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1015" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1015" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -753,7 +759,7 @@
       <c r="ALZ1"/>
       <c r="AMA1"/>
     </row>
-    <row r="2" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -763,23 +769,23 @@
       <c r="C2" s="5">
         <v>44880</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>1500000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>75000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -789,32 +795,58 @@
       <c r="C3" s="5">
         <v>45550</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>3750000</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>-37500</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1015" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44880</v>
+      </c>
+      <c r="D4">
+        <v>300000</v>
+      </c>
+      <c r="E4">
+        <v>150000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1015" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
   </sheetData>

--- a/public/sample_uploads/fund_ratios/portfolio_investments.xlsx
+++ b/public/sample_uploads/fund_ratios/portfolio_investments.xlsx
@@ -5,17 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\fund_ratios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE67CB5A-F884-423D-A343-2A307F4B04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{D5C4491B-E79F-432C-92D5-9B55AE6A4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D296247-4E68-4038-B03F-1ABA32C49F48}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$ALZ$5</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,7 +85,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Mandatory: Portfolio Company name as recorded on CapHive</t>
         </r>
@@ -92,7 +109,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>-Mandatory in dd/mm/yyyy format
 -Please sort the transactions 'date wise' before uploading to ensure proper portfolio attributions</t>
@@ -117,7 +134,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>-Mandatory</t>
         </r>
@@ -141,7 +158,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>-Mandatory
 -Incase of sell transactions please specify a negative quantity
@@ -167,13 +184,13 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>-Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -191,32 +208,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Applicable if for CoInvest</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>-Mandatory
 -As per SEBI reporting requirements</t>
@@ -228,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Fund</t>
   </si>
@@ -245,50 +237,47 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Folio No</t>
-  </si>
-  <si>
     <t>Instrument</t>
   </si>
   <si>
     <t>Investment Domicile *</t>
   </si>
   <si>
+    <t>Domestic</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
+    <t>INR</t>
+  </si>
+  <si>
     <t>Amount (Excluding Expenses)*</t>
   </si>
   <si>
-    <t>Fund X</t>
-  </si>
-  <si>
-    <t>Ego Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Part sale through secondary</t>
-  </si>
-  <si>
-    <t>EITUDUPF</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Investment in Series A round</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Equity</t>
+  </si>
+  <si>
+    <t>CCPS</t>
+  </si>
+  <si>
+    <t>Demo Fund 1</t>
+  </si>
+  <si>
+    <t>TSTF1 Port Co 1</t>
+  </si>
+  <si>
+    <t>TSTF1 Port Co 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -333,12 +322,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,21 +367,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{0C8E48D0-B80A-4730-ACD7-1B980B9D8614}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,33 +695,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMA8"/>
+  <dimension ref="A1:ALZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.19921875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="3.9296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.59765625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.265625" style="1" customWidth="1"/>
-    <col min="15" max="1014" width="8.53125" style="1"/>
-    <col min="1015" max="1015" width="9.06640625" style="1" customWidth="1"/>
-    <col min="1016" max="1024" width="9.06640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" style="1" customWidth="1"/>
+    <col min="14" max="1013" width="8.53125" style="1"/>
+    <col min="1014" max="1014" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1015" max="1023" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1015" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1014" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -733,8 +730,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -746,112 +743,150 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="ALW1"/>
       <c r="ALX1"/>
       <c r="ALY1"/>
       <c r="ALZ1"/>
-      <c r="AMA1"/>
     </row>
-    <row r="2" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:1014" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45031</v>
+      </c>
+      <c r="D2" s="6">
+        <v>200000000</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2/F2</f>
+        <v>2000000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
-        <v>44880</v>
-      </c>
-      <c r="D2">
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:1014" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45033</v>
+      </c>
+      <c r="D3" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E5" si="0">D3/F3</f>
         <v>1500000</v>
       </c>
-      <c r="E2">
-        <v>75000</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="7">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:1014" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45031</v>
+      </c>
+      <c r="D4" s="6">
+        <v>350000000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:1014" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="3">
+        <v>45214</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1400000000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>14000000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>45550</v>
-      </c>
-      <c r="D3">
-        <v>3750000</v>
-      </c>
-      <c r="E3">
-        <v>-37500</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44880</v>
-      </c>
-      <c r="D4">
-        <v>300000</v>
-      </c>
-      <c r="E4">
-        <v>150000</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:1015" x14ac:dyDescent="0.45">
-      <c r="C8" s="3"/>
+    <row r="6" spans="1:1014" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1008" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1005" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/public/sample_uploads/fund_ratios/portfolio_investments.xlsx
+++ b/public/sample_uploads/fund_ratios/portfolio_investments.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\fund_ratios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{D5C4491B-E79F-432C-92D5-9B55AE6A4D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D296247-4E68-4038-B03F-1ABA32C49F48}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB44841-EA7F-4B17-A7CA-F163E54B1511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$ALZ$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$ALZ$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -261,13 +261,13 @@
     <t>CCPS</t>
   </si>
   <si>
-    <t>Demo Fund 1</t>
-  </si>
-  <si>
-    <t>TSTF1 Port Co 1</t>
-  </si>
-  <si>
-    <t>TSTF1 Port Co 2</t>
+    <t>Demo Fund 2</t>
+  </si>
+  <si>
+    <t>TSTF2 Port Co 3</t>
+  </si>
+  <si>
+    <t>TSTF2 Port Co 4</t>
   </si>
 </sst>
 </file>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALZ6"/>
+  <dimension ref="A1:ALZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -764,11 +764,11 @@
         <v>45031</v>
       </c>
       <c r="D2" s="6">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E2" s="1">
-        <f>D2/F2</f>
-        <v>2000000</v>
+        <f t="shared" ref="E2:E4" si="0">D2/F2</f>
+        <v>1000000</v>
       </c>
       <c r="F2" s="7">
         <v>100</v>
@@ -796,11 +796,11 @@
         <v>45033</v>
       </c>
       <c r="D3" s="6">
-        <v>150000000</v>
+        <v>40000000</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E5" si="0">D3/F3</f>
-        <v>1500000</v>
+        <f t="shared" si="0"/>
+        <v>400000</v>
       </c>
       <c r="F3" s="7">
         <v>100</v>
@@ -822,17 +822,17 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45031</v>
+        <v>45214</v>
       </c>
       <c r="D4" s="6">
-        <v>350000000</v>
+        <v>280000000</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>3500000</v>
+        <v>2800000</v>
       </c>
       <c r="F4" s="7">
         <v>100</v>
@@ -854,23 +854,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>45214</v>
+        <v>45717</v>
       </c>
       <c r="D5" s="6">
-        <v>1400000000</v>
+        <v>100000000</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>14000000</v>
+        <v>-500000</v>
       </c>
       <c r="F5" s="7">
         <v>100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
@@ -878,15 +877,10 @@
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:1014" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1005" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1004" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Domestic,Overseas"</formula1>
       <formula2>0</formula2>
     </dataValidation>
